--- a/resources/list3.xlsx
+++ b/resources/list3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\Desktop\Experiment Neurolinguïstiek\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D33B587-AFDE-4574-A959-651B5AD0D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030462F-6523-41CF-9D68-E4DD5A0AD757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1125,9 +1125,6 @@
     <t>nas</t>
   </si>
   <si>
-    <t>ontzeks</t>
-  </si>
-  <si>
     <t>tist</t>
   </si>
   <si>
@@ -1852,6 +1849,9 @@
   </si>
   <si>
     <t>stimID</t>
+  </si>
+  <si>
+    <t>onzeps</t>
   </si>
 </sst>
 </file>
@@ -1927,19 +1927,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FFBF4F14"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6C6AC"/>
-          <bgColor rgb="FFF6C6AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2152,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2177,10 +2165,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2201,10 +2189,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -2248,10 +2236,10 @@
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K2" s="2">
         <v>2.4786000000000001</v>
@@ -2289,10 +2277,10 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K3" s="2">
         <v>2.3283999999999998</v>
@@ -2330,10 +2318,10 @@
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K4" s="2">
         <v>3.1564999999999999</v>
@@ -2371,10 +2359,10 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K5" s="2">
         <v>3.2238000000000002</v>
@@ -2412,10 +2400,10 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K6" s="2">
         <v>2.8976000000000002</v>
@@ -2453,10 +2441,10 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K7" s="2">
         <v>2.3138999999999998</v>
@@ -2494,10 +2482,10 @@
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K8" s="2">
         <v>2.9619</v>
@@ -2535,10 +2523,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K9" s="2">
         <v>2.2765</v>
@@ -2576,10 +2564,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K10" s="2">
         <v>2.7134999999999998</v>
@@ -2617,10 +2605,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K11" s="2">
         <v>2.7284000000000002</v>
@@ -2658,10 +2646,10 @@
         <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K12" s="2">
         <v>2.5051000000000001</v>
@@ -2699,10 +2687,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K13" s="2">
         <v>2.1987000000000001</v>
@@ -2740,10 +2728,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K14" s="2">
         <v>2.0969000000000002</v>
@@ -2781,10 +2769,10 @@
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K15" s="2">
         <v>1.4472</v>
@@ -2822,10 +2810,10 @@
         <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K16" s="2">
         <v>2.3424</v>
@@ -2863,10 +2851,10 @@
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K17" s="2">
         <v>2.2279</v>
@@ -2904,10 +2892,10 @@
         <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K18" s="2">
         <v>3.3711000000000002</v>
@@ -2945,10 +2933,10 @@
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K19" s="2">
         <v>3.1414</v>
@@ -2986,10 +2974,10 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K20" s="2">
         <v>2.7118000000000002</v>
@@ -3027,10 +3015,10 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K21" s="2">
         <v>2.5527000000000002</v>
@@ -3068,10 +3056,10 @@
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K22" s="2">
         <v>3.6583000000000001</v>
@@ -3109,10 +3097,10 @@
         <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K23" s="2">
         <v>3.1796000000000002</v>
@@ -3150,10 +3138,10 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K24" s="2">
         <v>2.3483000000000001</v>
@@ -3191,10 +3179,10 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K25" s="2">
         <v>2.1732</v>
@@ -3232,10 +3220,10 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K26" s="2">
         <v>3.4076</v>
@@ -3273,10 +3261,10 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K27" s="2">
         <v>2.9722</v>
@@ -3314,10 +3302,10 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K28" s="2">
         <v>2.3578999999999999</v>
@@ -3355,10 +3343,10 @@
         <v>16</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K29" s="2">
         <v>2.2553000000000001</v>
@@ -3396,10 +3384,10 @@
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K30" s="2">
         <v>2.2227000000000001</v>
@@ -3437,10 +3425,10 @@
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K31" s="2">
         <v>2.9638</v>
@@ -3478,10 +3466,10 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K32" s="2">
         <v>2.3262999999999998</v>
@@ -3519,10 +3507,10 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K33" s="2">
         <v>2.9096000000000002</v>
@@ -3560,10 +3548,10 @@
         <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K34" s="2">
         <v>2.6675</v>
@@ -3601,10 +3589,10 @@
         <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K35" s="2">
         <v>2.8898999999999999</v>
@@ -3642,10 +3630,10 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K36" s="2">
         <v>3.3913000000000002</v>
@@ -3683,10 +3671,10 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K37" s="2">
         <v>2.0792000000000002</v>
@@ -3724,10 +3712,10 @@
         <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K38" s="2">
         <v>2.0169999999999999</v>
@@ -3765,10 +3753,10 @@
         <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K39" s="2">
         <v>2.4472</v>
@@ -3806,10 +3794,10 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K40" s="2">
         <v>3.1511</v>
@@ -3847,10 +3835,10 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K41" s="2">
         <v>2.6901999999999999</v>
@@ -3888,10 +3876,10 @@
         <v>16</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K42" s="2">
         <v>2.4133</v>
@@ -3929,10 +3917,10 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K43" s="2">
         <v>2.4329999999999998</v>
@@ -3970,10 +3958,10 @@
         <v>16</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K44" s="2">
         <v>3.8155999999999999</v>
@@ -4011,10 +3999,10 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K45" s="2">
         <v>2.8837000000000002</v>
@@ -4052,10 +4040,10 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K46" s="2">
         <v>3.4481999999999999</v>
@@ -4093,10 +4081,10 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K47" s="2">
         <v>2.8755999999999999</v>
@@ -4134,10 +4122,10 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K48" s="2">
         <v>3.2622</v>
@@ -4175,10 +4163,10 @@
         <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K49" s="2">
         <v>3.6316999999999999</v>
@@ -4216,10 +4204,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K50" s="2">
         <v>3.0398000000000001</v>
@@ -4257,10 +4245,10 @@
         <v>16</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K51" s="2">
         <v>2.1366999999999998</v>
@@ -4298,10 +4286,10 @@
         <v>16</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K52" s="2">
         <v>1.9444999999999999</v>
@@ -4339,10 +4327,10 @@
         <v>16</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K53" s="2">
         <v>2.5415999999999999</v>
@@ -4380,10 +4368,10 @@
         <v>16</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K54" s="2">
         <v>3.2831000000000001</v>
@@ -4421,10 +4409,10 @@
         <v>16</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K55" s="2">
         <v>2.3283999999999998</v>
@@ -4462,10 +4450,10 @@
         <v>16</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K56" s="2">
         <v>2.2067999999999999</v>
@@ -4503,10 +4491,10 @@
         <v>16</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K57" s="2">
         <v>2.5821000000000001</v>
@@ -4544,10 +4532,10 @@
         <v>16</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K58" s="2">
         <v>2.0754999999999999</v>
@@ -4585,10 +4573,10 @@
         <v>16</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K59" s="2">
         <v>2.9394999999999998</v>
@@ -4626,10 +4614,10 @@
         <v>16</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K60" s="2">
         <v>2.5366</v>
@@ -4667,10 +4655,10 @@
         <v>16</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K61" s="2">
         <v>2.9702999999999999</v>
@@ -4708,10 +4696,10 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K62" s="2">
         <v>2.2877999999999998</v>
@@ -4749,10 +4737,10 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K63" s="2">
         <v>2.2989000000000002</v>
@@ -4790,10 +4778,10 @@
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K64" s="2">
         <v>2.0969000000000002</v>
@@ -4831,10 +4819,10 @@
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K65" s="2">
         <v>1.9345000000000001</v>
@@ -4872,10 +4860,10 @@
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K66" s="2">
         <v>3.6036000000000001</v>
@@ -4913,10 +4901,10 @@
         <v>16</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K67" s="2">
         <v>2.1072000000000002</v>
@@ -4954,10 +4942,10 @@
         <v>16</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K68" s="2">
         <v>2.4579</v>
@@ -4995,10 +4983,10 @@
         <v>16</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K69" s="2">
         <v>2.5876999999999999</v>
@@ -5036,10 +5024,10 @@
         <v>16</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K70" s="2">
         <v>3.8027000000000002</v>
@@ -5077,10 +5065,10 @@
         <v>16</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K71" s="2">
         <v>2.4472</v>
@@ -5118,10 +5106,10 @@
         <v>16</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K72" s="2">
         <v>2.7059000000000002</v>
@@ -5159,10 +5147,10 @@
         <v>16</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K73" s="2">
         <v>2.0373999999999999</v>
@@ -5182,10 +5170,10 @@
         <v>163</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>163</v>
@@ -5200,10 +5188,10 @@
         <v>16</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K74" s="2">
         <v>2.3944999999999999</v>
@@ -5223,10 +5211,10 @@
         <v>163</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>163</v>
@@ -5241,10 +5229,10 @@
         <v>16</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K75" s="2">
         <v>2.8784999999999998</v>
@@ -5264,10 +5252,10 @@
         <v>163</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>163</v>
@@ -5282,10 +5270,10 @@
         <v>16</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K76" s="2">
         <v>3.0194999999999999</v>
@@ -5305,10 +5293,10 @@
         <v>163</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>163</v>
@@ -5323,10 +5311,10 @@
         <v>16</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K77" s="2">
         <v>3.0891999999999999</v>
@@ -5346,10 +5334,10 @@
         <v>163</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>163</v>
@@ -5364,10 +5352,10 @@
         <v>16</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K78" s="2">
         <v>3.1398999999999999</v>
@@ -5387,10 +5375,10 @@
         <v>163</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>163</v>
@@ -5405,10 +5393,10 @@
         <v>16</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K79" s="2">
         <v>3.1082000000000001</v>
@@ -5428,10 +5416,10 @@
         <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>163</v>
@@ -5446,10 +5434,10 @@
         <v>16</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K80" s="2">
         <v>2.8344</v>
@@ -5469,10 +5457,10 @@
         <v>163</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>163</v>
@@ -5487,10 +5475,10 @@
         <v>16</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K81" s="2">
         <v>3.1358000000000001</v>
@@ -5510,10 +5498,10 @@
         <v>163</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>163</v>
@@ -5528,10 +5516,10 @@
         <v>16</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K82" s="2">
         <v>3.1044999999999998</v>
@@ -5551,10 +5539,10 @@
         <v>163</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>163</v>
@@ -5569,10 +5557,10 @@
         <v>16</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K83" s="2">
         <v>3.1286999999999998</v>
@@ -5592,10 +5580,10 @@
         <v>163</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>163</v>
@@ -5610,10 +5598,10 @@
         <v>16</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K84" s="2">
         <v>2.8603000000000001</v>
@@ -5633,10 +5621,10 @@
         <v>163</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>163</v>
@@ -5651,10 +5639,10 @@
         <v>16</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K85" s="2">
         <v>2.7966000000000002</v>
@@ -5674,10 +5662,10 @@
         <v>163</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>163</v>
@@ -5692,10 +5680,10 @@
         <v>16</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K86" s="2">
         <v>2.5775000000000001</v>
@@ -5715,10 +5703,10 @@
         <v>163</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>163</v>
@@ -5733,10 +5721,10 @@
         <v>16</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K87" s="2">
         <v>3.0611000000000002</v>
@@ -5756,10 +5744,10 @@
         <v>163</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>163</v>
@@ -5774,10 +5762,10 @@
         <v>16</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K88" s="2">
         <v>2.7917000000000001</v>
@@ -5797,10 +5785,10 @@
         <v>163</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>163</v>
@@ -5815,10 +5803,10 @@
         <v>16</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K89" s="2">
         <v>3.1274000000000002</v>
@@ -5838,10 +5826,10 @@
         <v>163</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>163</v>
@@ -5856,10 +5844,10 @@
         <v>16</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K90" s="2">
         <v>2.9329999999999998</v>
@@ -5879,10 +5867,10 @@
         <v>163</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>163</v>
@@ -5897,10 +5885,10 @@
         <v>16</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K91" s="2">
         <v>2.9512999999999998</v>
@@ -5920,10 +5908,10 @@
         <v>163</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>163</v>
@@ -5938,10 +5926,10 @@
         <v>16</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K92" s="2">
         <v>3.1646999999999998</v>
@@ -5961,10 +5949,10 @@
         <v>163</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>163</v>
@@ -5979,10 +5967,10 @@
         <v>16</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K93" s="2">
         <v>3.0232999999999999</v>
@@ -6020,10 +6008,10 @@
         <v>16</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2">
@@ -6059,10 +6047,10 @@
         <v>16</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2">
@@ -6098,10 +6086,10 @@
         <v>16</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2">
@@ -6137,10 +6125,10 @@
         <v>16</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2">
@@ -6176,10 +6164,10 @@
         <v>16</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2">
@@ -6215,10 +6203,10 @@
         <v>16</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2">
@@ -6254,10 +6242,10 @@
         <v>16</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2">
@@ -6293,10 +6281,10 @@
         <v>16</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2">
@@ -6314,10 +6302,10 @@
         <v>163</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>166</v>
@@ -6332,10 +6320,10 @@
         <v>16</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2">
@@ -6353,10 +6341,10 @@
         <v>163</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>166</v>
@@ -6371,10 +6359,10 @@
         <v>16</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2">
@@ -6410,10 +6398,10 @@
         <v>16</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2">
@@ -6431,10 +6419,10 @@
         <v>163</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>166</v>
@@ -6449,10 +6437,10 @@
         <v>16</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2">
@@ -6488,10 +6476,10 @@
         <v>16</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2">
@@ -6527,10 +6515,10 @@
         <v>16</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2">
@@ -6548,10 +6536,10 @@
         <v>163</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>330</v>
@@ -6566,10 +6554,10 @@
         <v>167</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -6603,10 +6591,10 @@
         <v>167</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -6640,10 +6628,10 @@
         <v>167</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -6677,10 +6665,10 @@
         <v>167</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -6714,10 +6702,10 @@
         <v>167</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -6751,10 +6739,10 @@
         <v>167</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -6773,7 +6761,7 @@
         <v>339</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>330</v>
@@ -6788,10 +6776,10 @@
         <v>167</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -6825,10 +6813,10 @@
         <v>167</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -6862,10 +6850,10 @@
         <v>167</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -6881,10 +6869,10 @@
         <v>163</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>365</v>
+        <v>607</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>330</v>
@@ -6899,10 +6887,10 @@
         <v>167</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -6936,10 +6924,10 @@
         <v>167</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -6955,10 +6943,10 @@
         <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>330</v>
@@ -6973,10 +6961,10 @@
         <v>167</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -7010,10 +6998,10 @@
         <v>167</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -7047,10 +7035,10 @@
         <v>167</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -7066,7 +7054,7 @@
         <v>163</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>340</v>
@@ -7084,10 +7072,10 @@
         <v>167</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -7103,10 +7091,10 @@
         <v>163</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>330</v>
@@ -7121,10 +7109,10 @@
         <v>167</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -7158,10 +7146,10 @@
         <v>167</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -7180,7 +7168,7 @@
         <v>351</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>330</v>
@@ -7195,10 +7183,10 @@
         <v>167</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -7232,10 +7220,10 @@
         <v>167</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
@@ -7269,10 +7257,10 @@
         <v>167</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
@@ -7306,10 +7294,10 @@
         <v>167</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
@@ -7343,10 +7331,10 @@
         <v>167</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
@@ -7362,10 +7350,10 @@
         <v>163</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>330</v>
@@ -7380,10 +7368,10 @@
         <v>167</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
@@ -7399,10 +7387,10 @@
         <v>163</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>330</v>
@@ -7417,10 +7405,10 @@
         <v>167</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -7436,10 +7424,10 @@
         <v>163</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>330</v>
@@ -7454,10 +7442,10 @@
         <v>167</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
@@ -7476,7 +7464,7 @@
         <v>364</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>330</v>
@@ -7491,10 +7479,10 @@
         <v>167</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
@@ -7510,10 +7498,10 @@
         <v>163</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>330</v>
@@ -7528,10 +7516,10 @@
         <v>167</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
@@ -7565,10 +7553,10 @@
         <v>167</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
@@ -7587,7 +7575,7 @@
         <v>279</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>281</v>
@@ -7602,10 +7590,10 @@
         <v>167</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
@@ -7624,7 +7612,7 @@
         <v>284</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>281</v>
@@ -7639,10 +7627,10 @@
         <v>167</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
@@ -7661,7 +7649,7 @@
         <v>296</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>281</v>
@@ -7676,10 +7664,10 @@
         <v>167</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
@@ -7713,10 +7701,10 @@
         <v>167</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
@@ -7735,7 +7723,7 @@
         <v>288</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>281</v>
@@ -7750,10 +7738,10 @@
         <v>167</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
@@ -7787,10 +7775,10 @@
         <v>167</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -7824,10 +7812,10 @@
         <v>167</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
@@ -7861,10 +7849,10 @@
         <v>167</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
@@ -7883,7 +7871,7 @@
         <v>301</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>281</v>
@@ -7898,10 +7886,10 @@
         <v>167</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -7935,10 +7923,10 @@
         <v>167</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -7957,7 +7945,7 @@
         <v>306</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>281</v>
@@ -7972,10 +7960,10 @@
         <v>167</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
@@ -8009,10 +7997,10 @@
         <v>167</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
@@ -8046,10 +8034,10 @@
         <v>167</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
@@ -8083,10 +8071,10 @@
         <v>167</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
@@ -8105,7 +8093,7 @@
         <v>321</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>281</v>
@@ -8120,10 +8108,10 @@
         <v>167</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
@@ -8157,10 +8145,10 @@
         <v>167</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
@@ -8194,10 +8182,10 @@
         <v>167</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
@@ -8231,10 +8219,10 @@
         <v>167</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
@@ -8268,10 +8256,10 @@
         <v>167</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -8305,10 +8293,10 @@
         <v>167</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -8342,10 +8330,10 @@
         <v>167</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -8379,10 +8367,10 @@
         <v>167</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -8401,7 +8389,7 @@
         <v>285</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>281</v>
@@ -8416,10 +8404,10 @@
         <v>167</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -8453,10 +8441,10 @@
         <v>167</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
@@ -8490,10 +8478,10 @@
         <v>167</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -8512,7 +8500,7 @@
         <v>293</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>281</v>
@@ -8527,10 +8515,10 @@
         <v>167</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -8564,10 +8552,10 @@
         <v>167</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -8601,10 +8589,10 @@
         <v>167</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -8620,10 +8608,10 @@
         <v>163</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>163</v>
@@ -8638,10 +8626,10 @@
         <v>167</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K164" s="2">
         <v>3.4813999999999998</v>
@@ -8659,10 +8647,10 @@
         <v>163</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>163</v>
@@ -8677,10 +8665,10 @@
         <v>167</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K165" s="2">
         <v>3.6004999999999998</v>
@@ -8698,10 +8686,10 @@
         <v>163</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>163</v>
@@ -8716,10 +8704,10 @@
         <v>167</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K166" s="2">
         <v>3.5966</v>
@@ -8737,10 +8725,10 @@
         <v>163</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>163</v>
@@ -8755,10 +8743,10 @@
         <v>167</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K167" s="2">
         <v>3.5794000000000001</v>
@@ -8776,10 +8764,10 @@
         <v>163</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>163</v>
@@ -8794,10 +8782,10 @@
         <v>167</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K168" s="2">
         <v>3.6640000000000001</v>
@@ -8815,10 +8803,10 @@
         <v>163</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>163</v>
@@ -8833,10 +8821,10 @@
         <v>167</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K169" s="2">
         <v>3.6351</v>
@@ -8854,10 +8842,10 @@
         <v>163</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>163</v>
@@ -8872,10 +8860,10 @@
         <v>167</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K170" s="2">
         <v>3.5960000000000001</v>
@@ -8893,10 +8881,10 @@
         <v>163</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>163</v>
@@ -8911,10 +8899,10 @@
         <v>167</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K171" s="2">
         <v>3.5137999999999998</v>
@@ -8932,10 +8920,10 @@
         <v>163</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>163</v>
@@ -8950,10 +8938,10 @@
         <v>167</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K172" s="2">
         <v>3.1023999999999998</v>
@@ -8971,10 +8959,10 @@
         <v>163</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>163</v>
@@ -8989,10 +8977,10 @@
         <v>167</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K173" s="2">
         <v>3.7376999999999998</v>
@@ -9010,10 +8998,10 @@
         <v>163</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>163</v>
@@ -9028,10 +9016,10 @@
         <v>167</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K174" s="2">
         <v>3.5335999999999999</v>
@@ -9049,10 +9037,10 @@
         <v>163</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>163</v>
@@ -9067,10 +9055,10 @@
         <v>167</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K175" s="2">
         <v>3.4245999999999999</v>
@@ -9088,10 +9076,10 @@
         <v>163</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>163</v>
@@ -9106,10 +9094,10 @@
         <v>167</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K176" s="2">
         <v>3.0859999999999999</v>
@@ -9127,10 +9115,10 @@
         <v>163</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>163</v>
@@ -9145,10 +9133,10 @@
         <v>167</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K177" s="2">
         <v>3.6995</v>
@@ -9166,10 +9154,10 @@
         <v>163</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>90</v>
@@ -9184,10 +9172,10 @@
         <v>167</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K178" s="2">
         <v>1.2303999999999999</v>
@@ -9205,10 +9193,10 @@
         <v>163</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>90</v>
@@ -9223,10 +9211,10 @@
         <v>167</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K179" s="2">
         <v>1.2303999999999999</v>
@@ -9244,10 +9232,10 @@
         <v>163</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>90</v>
@@ -9262,10 +9250,10 @@
         <v>167</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K180" s="2">
         <v>1.2553000000000001</v>
@@ -9283,10 +9271,10 @@
         <v>163</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>90</v>
@@ -9301,10 +9289,10 @@
         <v>167</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K181" s="2">
         <v>1.3802000000000001</v>
@@ -9322,10 +9310,10 @@
         <v>163</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>90</v>
@@ -9340,10 +9328,10 @@
         <v>167</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K182" s="2">
         <v>1.415</v>
@@ -9361,10 +9349,10 @@
         <v>163</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>90</v>
@@ -9379,10 +9367,10 @@
         <v>167</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K183" s="2">
         <v>1.2553000000000001</v>
@@ -9400,10 +9388,10 @@
         <v>163</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>90</v>
@@ -9418,10 +9406,10 @@
         <v>167</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K184" s="2">
         <v>1.3424</v>
@@ -9439,10 +9427,10 @@
         <v>163</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>90</v>
@@ -9457,10 +9445,10 @@
         <v>167</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K185" s="2">
         <v>1.2303999999999999</v>
@@ -9478,10 +9466,10 @@
         <v>163</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>90</v>
@@ -9496,10 +9484,10 @@
         <v>167</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K186" s="2">
         <v>1.3009999999999999</v>
@@ -9517,10 +9505,10 @@
         <v>163</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>90</v>
@@ -9535,10 +9523,10 @@
         <v>167</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K187" s="2">
         <v>1.3222</v>
@@ -9556,10 +9544,10 @@
         <v>163</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>90</v>
@@ -9574,10 +9562,10 @@
         <v>167</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K188" s="2">
         <v>1.0414000000000001</v>
@@ -9595,10 +9583,10 @@
         <v>163</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>90</v>
@@ -9613,10 +9601,10 @@
         <v>167</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K189" s="2">
         <v>1.415</v>
@@ -9634,10 +9622,10 @@
         <v>163</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>90</v>
@@ -9652,10 +9640,10 @@
         <v>167</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K190" s="2">
         <v>1.4314</v>
@@ -9673,10 +9661,10 @@
         <v>163</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>90</v>
@@ -9691,10 +9679,10 @@
         <v>167</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K191" s="2">
         <v>1.3802000000000001</v>
@@ -9712,10 +9700,10 @@
         <v>163</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>140</v>
@@ -9730,10 +9718,10 @@
         <v>167</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K192" s="2">
         <v>2.1553</v>
@@ -9751,10 +9739,10 @@
         <v>163</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>140</v>
@@ -9769,10 +9757,10 @@
         <v>167</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K193" s="2">
         <v>2.2945000000000002</v>
@@ -9790,10 +9778,10 @@
         <v>163</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>140</v>
@@ -9808,10 +9796,10 @@
         <v>167</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K194" s="2">
         <v>2.9384999999999999</v>
@@ -9829,10 +9817,10 @@
         <v>163</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>140</v>
@@ -9847,10 +9835,10 @@
         <v>167</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K195" s="2">
         <v>3.2235</v>
@@ -9868,10 +9856,10 @@
         <v>163</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>140</v>
@@ -9886,10 +9874,10 @@
         <v>167</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K196" s="2">
         <v>2.0754999999999999</v>
@@ -9907,10 +9895,10 @@
         <v>163</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>140</v>
@@ -9925,10 +9913,10 @@
         <v>167</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K197" s="2">
         <v>2.6998000000000002</v>
@@ -9946,10 +9934,10 @@
         <v>163</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>140</v>
@@ -9964,10 +9952,10 @@
         <v>167</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K198" s="2">
         <v>2.4165999999999999</v>
@@ -9985,10 +9973,10 @@
         <v>163</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>140</v>
@@ -10003,10 +9991,10 @@
         <v>167</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K199" s="2">
         <v>2.5415999999999999</v>
@@ -10024,10 +10012,10 @@
         <v>163</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>140</v>
@@ -10042,10 +10030,10 @@
         <v>167</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K200" s="2">
         <v>2.7656999999999998</v>
@@ -10063,10 +10051,10 @@
         <v>163</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>140</v>
@@ -10081,10 +10069,10 @@
         <v>167</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K201" s="2">
         <v>3.5068999999999999</v>
@@ -10102,10 +10090,10 @@
         <v>163</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>140</v>
@@ -10120,10 +10108,10 @@
         <v>167</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K202" s="2">
         <v>2.1959</v>
@@ -10141,10 +10129,10 @@
         <v>163</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>140</v>
@@ -10159,10 +10147,10 @@
         <v>167</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K203" s="2">
         <v>3.4986000000000002</v>
@@ -10180,10 +10168,10 @@
         <v>163</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>140</v>
@@ -10198,10 +10186,10 @@
         <v>167</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K204" s="2">
         <v>2.3837999999999999</v>
@@ -10219,10 +10207,10 @@
         <v>163</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>140</v>
@@ -10237,10 +10225,10 @@
         <v>167</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K205" s="2">
         <v>2.3464</v>
@@ -10258,10 +10246,10 @@
         <v>163</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>14</v>
@@ -10276,10 +10264,10 @@
         <v>167</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K206" s="2">
         <v>2.7559</v>
@@ -10297,10 +10285,10 @@
         <v>163</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>14</v>
@@ -10315,10 +10303,10 @@
         <v>167</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K207" s="2">
         <v>3.0674000000000001</v>
@@ -10336,10 +10324,10 @@
         <v>163</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>14</v>
@@ -10354,10 +10342,10 @@
         <v>167</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K208" s="2">
         <v>3.0659999999999998</v>
@@ -10375,10 +10363,10 @@
         <v>163</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>14</v>
@@ -10393,10 +10381,10 @@
         <v>167</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K209" s="2">
         <v>3.4622000000000002</v>
@@ -10414,10 +10402,10 @@
         <v>163</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>14</v>
@@ -10432,10 +10420,10 @@
         <v>167</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K210" s="2">
         <v>3.0127999999999999</v>
@@ -10453,10 +10441,10 @@
         <v>163</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>14</v>
@@ -10471,10 +10459,10 @@
         <v>167</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K211" s="2">
         <v>2.5478000000000001</v>
@@ -10492,10 +10480,10 @@
         <v>163</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>14</v>
@@ -10510,10 +10498,10 @@
         <v>167</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K212" s="2">
         <v>2.8195000000000001</v>
@@ -10531,10 +10519,10 @@
         <v>163</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>14</v>
@@ -10549,10 +10537,10 @@
         <v>167</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K213" s="2">
         <v>2.9590000000000001</v>
@@ -10570,10 +10558,10 @@
         <v>163</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>14</v>
@@ -10588,10 +10576,10 @@
         <v>167</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K214" s="2">
         <v>2.8645</v>
@@ -10609,10 +10597,10 @@
         <v>163</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>14</v>
@@ -10627,10 +10615,10 @@
         <v>167</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K215" s="2">
         <v>3.5863999999999998</v>
@@ -10648,10 +10636,10 @@
         <v>163</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>14</v>
@@ -10666,10 +10654,10 @@
         <v>167</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K216" s="2">
         <v>2.8169</v>
@@ -10687,10 +10675,10 @@
         <v>163</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>14</v>
@@ -10705,10 +10693,10 @@
         <v>167</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K217" s="2">
         <v>2.5501999999999998</v>
@@ -10726,10 +10714,10 @@
         <v>163</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>14</v>
@@ -10744,10 +10732,10 @@
         <v>167</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K218" s="2">
         <v>2.7694000000000001</v>
@@ -10765,10 +10753,10 @@
         <v>163</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>14</v>
@@ -10783,10 +10771,10 @@
         <v>167</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K219" s="2">
         <v>2.5657999999999999</v>
@@ -10804,10 +10792,10 @@
         <v>163</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>65</v>
@@ -10822,10 +10810,10 @@
         <v>167</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K220" s="2">
         <v>2.0253000000000001</v>
@@ -10843,10 +10831,10 @@
         <v>163</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>65</v>
@@ -10861,10 +10849,10 @@
         <v>167</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K221" s="2">
         <v>2.8932000000000002</v>
@@ -10882,10 +10870,10 @@
         <v>163</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>65</v>
@@ -10900,10 +10888,10 @@
         <v>167</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K222" s="2">
         <v>3.1318999999999999</v>
@@ -10921,10 +10909,10 @@
         <v>163</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>65</v>
@@ -10939,10 +10927,10 @@
         <v>167</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K223" s="2">
         <v>2.4216000000000002</v>
@@ -10960,10 +10948,10 @@
         <v>163</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>65</v>
@@ -10978,10 +10966,10 @@
         <v>167</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K224" s="2">
         <v>2.6294</v>
@@ -10999,10 +10987,10 @@
         <v>163</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>65</v>
@@ -11017,10 +11005,10 @@
         <v>167</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K225" s="2">
         <v>1.5051000000000001</v>
@@ -11038,10 +11026,10 @@
         <v>163</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>65</v>
@@ -11056,10 +11044,10 @@
         <v>167</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K226" s="2">
         <v>3.3247</v>
@@ -11077,10 +11065,10 @@
         <v>163</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>65</v>
@@ -11095,10 +11083,10 @@
         <v>167</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K227" s="2">
         <v>2.6720999999999999</v>
@@ -11116,10 +11104,10 @@
         <v>163</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>65</v>
@@ -11134,10 +11122,10 @@
         <v>167</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K228" s="2">
         <v>2.9304000000000001</v>
@@ -11155,10 +11143,10 @@
         <v>163</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>65</v>
@@ -11173,10 +11161,10 @@
         <v>167</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K229" s="2">
         <v>2.8102</v>
@@ -11194,10 +11182,10 @@
         <v>163</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>65</v>
@@ -11212,10 +11200,10 @@
         <v>167</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K230" s="2">
         <v>3.2557999999999998</v>
@@ -11233,10 +11221,10 @@
         <v>163</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>65</v>
@@ -11251,10 +11239,10 @@
         <v>167</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K231" s="2">
         <v>2.2303999999999999</v>
@@ -11272,10 +11260,10 @@
         <v>163</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>65</v>
@@ -11290,10 +11278,10 @@
         <v>167</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K232" s="2">
         <v>3.5943000000000001</v>
@@ -11311,10 +11299,10 @@
         <v>163</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>65</v>
@@ -11329,10 +11317,10 @@
         <v>167</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K233" s="2">
         <v>3.8778000000000001</v>
@@ -11368,10 +11356,10 @@
         <v>16</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="2">
@@ -11407,10 +11395,10 @@
         <v>16</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="2">
@@ -11446,10 +11434,10 @@
         <v>16</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="2">
@@ -11485,10 +11473,10 @@
         <v>16</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="2">
@@ -11524,10 +11512,10 @@
         <v>16</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="2">
@@ -11563,10 +11551,10 @@
         <v>16</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="2">
@@ -11602,10 +11590,10 @@
         <v>16</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="2">
@@ -11641,10 +11629,10 @@
         <v>16</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="2">
@@ -11680,10 +11668,10 @@
         <v>16</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2">
@@ -11719,10 +11707,10 @@
         <v>16</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2">
@@ -11758,10 +11746,10 @@
         <v>16</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2">
@@ -11797,10 +11785,10 @@
         <v>16</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2">
@@ -11836,10 +11824,10 @@
         <v>16</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2">
@@ -11875,10 +11863,10 @@
         <v>16</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2">
@@ -11914,10 +11902,10 @@
         <v>16</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="2">
@@ -11953,10 +11941,10 @@
         <v>16</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="2">
@@ -11992,10 +11980,10 @@
         <v>16</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="2">
@@ -12031,10 +12019,10 @@
         <v>16</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="2">
@@ -12070,10 +12058,10 @@
         <v>16</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="2">
@@ -12109,10 +12097,10 @@
         <v>16</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="2">
@@ -12148,10 +12136,10 @@
         <v>16</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="2">
@@ -12187,10 +12175,10 @@
         <v>16</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="2">
@@ -12226,10 +12214,10 @@
         <v>16</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="2">
@@ -12265,10 +12253,10 @@
         <v>16</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="2">
@@ -12304,10 +12292,10 @@
         <v>16</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="2">
@@ -12343,10 +12331,10 @@
         <v>16</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="2">
@@ -12382,10 +12370,10 @@
         <v>16</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="2">
@@ -12421,10 +12409,10 @@
         <v>16</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="2">
@@ -12460,10 +12448,10 @@
         <v>16</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="2">
@@ -12499,10 +12487,10 @@
         <v>16</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="2">
@@ -12538,10 +12526,10 @@
         <v>16</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2">
@@ -12577,10 +12565,10 @@
         <v>16</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="2">
@@ -12616,10 +12604,10 @@
         <v>16</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="2">
@@ -12637,10 +12625,10 @@
         <v>163</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>166</v>
@@ -12655,10 +12643,10 @@
         <v>16</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="2">
@@ -12694,10 +12682,10 @@
         <v>16</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="2">
@@ -12715,10 +12703,10 @@
         <v>163</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>166</v>
@@ -12733,10 +12721,10 @@
         <v>16</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="2">
@@ -12754,10 +12742,10 @@
         <v>163</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>166</v>
@@ -12772,10 +12760,10 @@
         <v>16</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="2">
@@ -12811,10 +12799,10 @@
         <v>16</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="2">
@@ -12850,10 +12838,10 @@
         <v>16</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="2">
@@ -12871,10 +12859,10 @@
         <v>163</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>166</v>
@@ -12889,10 +12877,10 @@
         <v>16</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="2">
@@ -12910,10 +12898,10 @@
         <v>163</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>166</v>
@@ -12928,10 +12916,10 @@
         <v>16</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="2">
@@ -12949,10 +12937,10 @@
         <v>163</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>166</v>
@@ -12967,10 +12955,10 @@
         <v>16</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="2">
@@ -13006,10 +12994,10 @@
         <v>16</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="2">
@@ -13027,10 +13015,10 @@
         <v>163</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>166</v>
@@ -13045,10 +13033,10 @@
         <v>16</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="2">
@@ -13084,10 +13072,10 @@
         <v>16</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="2">
@@ -13105,10 +13093,10 @@
         <v>163</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>166</v>
@@ -13123,10 +13111,10 @@
         <v>16</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="2">
@@ -13162,10 +13150,10 @@
         <v>16</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="2">
@@ -13201,10 +13189,10 @@
         <v>16</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="2">
@@ -13222,10 +13210,10 @@
         <v>163</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>166</v>
@@ -13240,10 +13228,10 @@
         <v>16</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="2">
@@ -13279,10 +13267,10 @@
         <v>16</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="2">
@@ -13300,10 +13288,10 @@
         <v>163</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>166</v>
@@ -13318,10 +13306,10 @@
         <v>16</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="2">
@@ -13339,10 +13327,10 @@
         <v>163</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>166</v>
@@ -13357,10 +13345,10 @@
         <v>16</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="2">
@@ -13396,10 +13384,10 @@
         <v>16</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="2">
@@ -13435,10 +13423,10 @@
         <v>16</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="2">
@@ -13474,10 +13462,10 @@
         <v>16</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="2">
@@ -13513,10 +13501,10 @@
         <v>16</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="2">

--- a/resources/list3.xlsx
+++ b/resources/list3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\Desktop\Experiment Neurolinguïstiek\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medej\Desktop\EXP Neurolinguistics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030462F-6523-41CF-9D68-E4DD5A0AD757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9B6D8B-C79F-4A88-BE77-4289F8FDAE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="25DlJ/orRCUb9w4fK9I5uJBOPecFlDaMOj9RTLkyf9s="/>
     </ext>
@@ -2140,30 +2151,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="V312" sqref="V312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="8.6640625" customWidth="1"/>
+    <col min="16" max="27" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>606</v>
       </c>
@@ -2210,7 +2221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2248,10 +2259,16 @@
         <v>2.4064999999999999</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="2" t="str">
+        <f>_xlfn.CONCAT(C2,".wav")</f>
+        <v>kostuum.wav</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>_xlfn.CONCAT(D2,".wav")</f>
+        <v>acties.wav</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2289,10 +2306,16 @@
         <v>2.1429999999999998</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N66" si="0">_xlfn.CONCAT(C3,".wav")</f>
+        <v>zwerver.wav</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O66" si="1">_xlfn.CONCAT(D3,".wav")</f>
+        <v>bendes.wav</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2330,10 +2353,16 @@
         <v>3.0823999999999998</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>gast.wav</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>bloemen.wav</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2371,10 +2400,16 @@
         <v>2.96</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>kennis.wav</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>broers.wav</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2412,10 +2447,16 @@
         <v>2.7528000000000001</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>arts.wav</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>camera's.wav</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2453,10 +2494,16 @@
         <v>2.2094999999999998</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>heupen.wav</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>centen.wav</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2494,10 +2541,16 @@
         <v>2.8248000000000002</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>vinger.wav</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>cijfers.wav</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2535,10 +2588,16 @@
         <v>2.3578999999999999</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>wortel.wav</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>daders.wav</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2576,10 +2635,16 @@
         <v>2.7465999999999999</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>koers.wav</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>dochters.wav</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2617,10 +2682,16 @@
         <v>2.4771000000000001</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>slang.wav</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>doelen.wav</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2658,10 +2729,16 @@
         <v>2.7225999999999999</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>acteurs.wav</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>dokters.wav</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2699,10 +2776,16 @@
         <v>2.6242999999999999</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>letter.wav</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>dollars.wav</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2740,10 +2823,16 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>laken.wav</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>dorpen.wav</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2781,10 +2870,16 @@
         <v>2.1875</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>kuiken.wav</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>draden.wav</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2822,10 +2917,16 @@
         <v>2.2040999999999999</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>vlek.wav</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>duimen.wav</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2863,10 +2964,16 @@
         <v>1.9956</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>kaars.wav</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ezels.wav</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2904,10 +3011,16 @@
         <v>2.9253</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>bewijs.wav</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>films.wav</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2945,10 +3058,16 @@
         <v>3.0341999999999998</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>been.wav</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>fouten.wav</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2986,10 +3105,16 @@
         <v>2.6415000000000002</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>oosten.wav</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>gaten.wav</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3027,10 +3152,16 @@
         <v>2.6284000000000001</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>plant.wav</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>grappen.wav</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3068,10 +3199,16 @@
         <v>3.4950999999999999</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>week.wav</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>heren.wav</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3109,10 +3246,16 @@
         <v>3.0390000000000001</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>keuken.wav</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>honden.wav</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3150,10 +3293,16 @@
         <v>2.5131999999999999</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>blokken.wav</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>hoofden.wav</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3191,10 +3340,16 @@
         <v>2.3424</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>harnas.wav</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>hotels.wav</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3232,10 +3387,16 @@
         <v>2.8555000000000001</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>kerel.wav</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>kamers.wav</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3273,10 +3434,16 @@
         <v>2.8555000000000001</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>klant.wav</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>kansen.wav</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3314,10 +3481,16 @@
         <v>2.6221999999999999</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>cursus.wav</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>keuzes.wav</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3355,10 +3528,16 @@
         <v>2.1903000000000001</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>streep.wav</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>klokken.wav</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3396,10 +3575,16 @@
         <v>2.0607000000000002</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nonnen.wav</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>knoppen.wav</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3437,10 +3622,16 @@
         <v>3.0068999999999999</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>wensen.wav</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>landen.wav</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3478,10 +3669,16 @@
         <v>2.5798000000000001</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>pagina's.wav</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>leiders.wav</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3519,10 +3716,16 @@
         <v>2.9340000000000002</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>geheugen.wav</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>lichten.wav</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3560,10 +3763,16 @@
         <v>2.4942000000000002</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>varen.wav</v>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>lijnen.wav</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3601,10 +3810,16 @@
         <v>2.8871000000000002</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>regen.wav</v>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>lippen.wav</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3642,10 +3857,16 @@
         <v>3.6917</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>wapen.wav</v>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>mannen.wav</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3683,10 +3904,16 @@
         <v>2.1903000000000001</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>toets.wav</v>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>maskers.wav</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3724,10 +3951,16 @@
         <v>2.1732</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>robots.wav</v>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>meesters.wav</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3765,10 +3998,16 @@
         <v>2.2945000000000002</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>vlam.wav</v>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>mijnen.wav</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3806,10 +4045,16 @@
         <v>3.0253000000000001</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sleutels.wav</v>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>moeders.wav</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3847,10 +4092,16 @@
         <v>2.7332000000000001</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>schouders.wav</v>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>monsters.wav</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3888,10 +4139,16 @@
         <v>2.6355</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>aas.wav</v>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>nagels.wav</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3929,10 +4186,16 @@
         <v>2.7075999999999998</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>spelers.wav</v>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>nummers.wav</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3970,10 +4233,16 @@
         <v>3.6964000000000001</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dingen.wav</v>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ogen.wav</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4011,10 +4280,16 @@
         <v>2.8584999999999998</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>burgers.wav</v>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>orders.wav</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4052,10 +4327,16 @@
         <v>3.4922</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dames.wav</v>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ouders.wav</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4093,10 +4374,16 @@
         <v>2.7465999999999999</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>vogel.wav</v>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>partners.wav</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4134,10 +4421,16 @@
         <v>3.1787000000000001</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>dromen.wav</v>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>plaatsen.wav</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4175,10 +4468,16 @@
         <v>3.6756000000000002</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>hand.wav</v>
+      </c>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>problemen.wav</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4216,10 +4515,16 @@
         <v>2.8837000000000002</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>vis.wav</v>
+      </c>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>punten.wav</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4257,10 +4562,16 @@
         <v>2.1583999999999999</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>strijder.wav</v>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>rechters.wav</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4298,10 +4609,16 @@
         <v>2.0043000000000002</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sirenes.wav</v>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>rimpels.wav</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4339,10 +4656,16 @@
         <v>2.7109999999999999</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>gids.wav</v>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>risico's.wav</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4380,10 +4703,16 @@
         <v>3.2452999999999999</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>plannen.wav</v>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>schoenen.wav</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4421,10 +4750,16 @@
         <v>2.3283999999999998</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amateur.wav</v>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>schrijvers.wav</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4462,10 +4797,16 @@
         <v>2.0127999999999999</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>naalden.wav</v>
+      </c>
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>seizoenen.wav</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4503,10 +4844,16 @@
         <v>2.5739999999999998</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>knopen.wav</v>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>spieren.wav</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4544,10 +4891,16 @@
         <v>1.9956</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>visser.wav</v>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>stapels.wav</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4585,10 +4938,16 @@
         <v>2.9670999999999998</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>noorden.wav</v>
+      </c>
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>stemmen.wav</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4626,10 +4985,16 @@
         <v>2.2067999999999999</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>oven.wav</v>
+      </c>
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>stoffen.wav</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4667,10 +5032,16 @@
         <v>3.1198999999999999</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>kaarten.wav</v>
+      </c>
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>tanden.wav</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4708,10 +5079,16 @@
         <v>2.2429999999999999</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>donuts.wav</v>
+      </c>
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>tunnels.wav</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4749,10 +5126,16 @@
         <v>2.5236999999999998</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>krijgers.wav</v>
+      </c>
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>twijfels.wav</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4790,10 +5173,16 @@
         <v>2.4502000000000002</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>posters.wav</v>
+      </c>
+      <c r="O64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>types.wav</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4831,10 +5220,16 @@
         <v>2.29</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>molen.wav</v>
+      </c>
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>velden.wav</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4872,10 +5267,16 @@
         <v>3.6004999999999998</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>reden.wav</v>
+      </c>
+      <c r="O66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>vrouwen.wav</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4913,10 +5314,16 @@
         <v>2.1303000000000001</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N67" s="2" t="str">
+        <f t="shared" ref="N67:N130" si="2">_xlfn.CONCAT(C67,".wav")</f>
+        <v>spijker.wav</v>
+      </c>
+      <c r="O67" s="2" t="str">
+        <f t="shared" ref="O67:O130" si="3">_xlfn.CONCAT(D67,".wav")</f>
+        <v>wachters.wav</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4954,10 +5361,16 @@
         <v>2.4518</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tiener.wav</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>winkels.wav</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4995,10 +5408,16 @@
         <v>2.5775000000000001</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>longen.wav</v>
+      </c>
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>wolken.wav</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5036,10 +5455,16 @@
         <v>3.5767000000000002</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N70" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>zorgen.wav</v>
+      </c>
+      <c r="O70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>zaken.wav</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5077,10 +5502,16 @@
         <v>2.3323999999999998</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N71" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>oppas.wav</v>
+      </c>
+      <c r="O71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ziektes.wav</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5118,10 +5549,16 @@
         <v>2.6503000000000001</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N72" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>wond.wav</v>
+      </c>
+      <c r="O72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>zielen.wav</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5159,10 +5596,16 @@
         <v>1.9684999999999999</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N73" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>terras.wav</v>
+      </c>
+      <c r="O73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>zomers.wav</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5200,10 +5643,16 @@
         <v>3.2681</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N74" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>keizer.wav</v>
+      </c>
+      <c r="O74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>aandacht.wav</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5241,10 +5690,16 @@
         <v>3.2002999999999999</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N75" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>woede.wav</v>
+      </c>
+      <c r="O75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>aantal.wav</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5282,10 +5737,16 @@
         <v>3.2025000000000001</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>procent.wav</v>
+      </c>
+      <c r="O76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>bericht.wav</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5323,10 +5784,16 @@
         <v>3.2885</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>leiding.wav</v>
+      </c>
+      <c r="O77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>bezoek.wav</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5364,10 +5831,16 @@
         <v>3.2025000000000001</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-    </row>
-    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>wonder.wav</v>
+      </c>
+      <c r="O78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>boodschap.wav</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5405,10 +5878,16 @@
         <v>3.2338</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>afstand.wav</v>
+      </c>
+      <c r="O79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>bureau.wav</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5446,10 +5925,16 @@
         <v>2.8388</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>bril.wav</v>
+      </c>
+      <c r="O80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>eiland.wav</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5487,10 +5972,16 @@
         <v>3.1640999999999999</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-    </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>gedoe.wav</v>
+      </c>
+      <c r="O81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>feestje.wav</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5528,10 +6019,16 @@
         <v>3.1937000000000002</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>paniek.wav</v>
+      </c>
+      <c r="O82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>gebied.wav</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5569,10 +6066,16 @@
         <v>3.1905999999999999</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ontbijt.wav</v>
+      </c>
+      <c r="O83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>gebouw.wav</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5610,10 +6113,16 @@
         <v>3.1421000000000001</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N84" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>verzet.wav</v>
+      </c>
+      <c r="O84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>geluid.wav</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5651,10 +6160,16 @@
         <v>3.2286999999999999</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-    </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N85" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>olie.wav</v>
+      </c>
+      <c r="O85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>indruk.wav</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5692,10 +6207,16 @@
         <v>3.0297999999999998</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N86" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>kasteel.wav</v>
+      </c>
+      <c r="O86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>missie.wav</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5733,10 +6254,16 @@
         <v>3.3389000000000002</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-    </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N87" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>systeem.wav</v>
+      </c>
+      <c r="O87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>moeite.wav</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5774,10 +6301,16 @@
         <v>2.8751000000000002</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N88" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>winter.wav</v>
+      </c>
+      <c r="O88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>planeet.wav</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5815,10 +6348,16 @@
         <v>3.3075000000000001</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-    </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N89" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ochtend.wav</v>
+      </c>
+      <c r="O89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>respect.wav</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5856,10 +6395,16 @@
         <v>3.2368000000000001</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N90" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>lijf.wav</v>
+      </c>
+      <c r="O90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>verschil.wav</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5897,10 +6442,16 @@
         <v>3.2075999999999998</v>
       </c>
       <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-    </row>
-    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N91" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pauze.wav</v>
+      </c>
+      <c r="O91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>vertrek.wav</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5938,10 +6489,16 @@
         <v>3.1934</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-    </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N92" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>bezit.wav</v>
+      </c>
+      <c r="O92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>vliegtuig.wav</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5979,10 +6536,16 @@
         <v>3.1697000000000002</v>
       </c>
       <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-    </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N93" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>motor.wav</v>
+      </c>
+      <c r="O93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>vrede.wav</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6018,10 +6581,16 @@
         <v>3.3913000000000002</v>
       </c>
       <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-    </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N94" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>bedwag.wav</v>
+      </c>
+      <c r="O94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>afspraak.wav</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6057,10 +6626,16 @@
         <v>3.6751</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-    </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N95" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>culsuur.wav</v>
+      </c>
+      <c r="O95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>auto.wav</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6096,10 +6671,16 @@
         <v>3.1006999999999998</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-    </row>
-    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N96" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>beslond.wav</v>
+      </c>
+      <c r="O96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>gedrag.wav</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6135,10 +6716,16 @@
         <v>3.3839999999999999</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-    </row>
-    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N97" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>papeur.wav</v>
+      </c>
+      <c r="O97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>gevaar.wav</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6174,10 +6761,16 @@
         <v>3.4165999999999999</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-    </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N98" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>komoet.wav</v>
+      </c>
+      <c r="O98" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>hemel.wav</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6213,10 +6806,16 @@
         <v>3.8209</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-    </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N99" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>alimd.wav</v>
+      </c>
+      <c r="O99" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>idee.wav</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6252,10 +6851,16 @@
         <v>3.2530999999999999</v>
       </c>
       <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-    </row>
-    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N100" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>penzing.wav</v>
+      </c>
+      <c r="O100" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>leger.wav</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6291,10 +6896,16 @@
         <v>3.4986999999999999</v>
       </c>
       <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-    </row>
-    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N101" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>gedocht.wav</v>
+      </c>
+      <c r="O101" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>liefde.wav</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6330,10 +6941,16 @@
         <v>3.6120999999999999</v>
       </c>
       <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-    </row>
-    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N102" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>wanveep.wav</v>
+      </c>
+      <c r="O102" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>meneer.wav</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6369,10 +6986,16 @@
         <v>3.3308</v>
       </c>
       <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-    </row>
-    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N103" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>storang.wav</v>
+      </c>
+      <c r="O103" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>muziek.wav</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6408,10 +7031,16 @@
         <v>3.4434</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-    </row>
-    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N104" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>harg.wav</v>
+      </c>
+      <c r="O104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>onzin.wav</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6447,10 +7076,16 @@
         <v>3.4047000000000001</v>
       </c>
       <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-    </row>
-    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N105" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>sigier.wav</v>
+      </c>
+      <c r="O105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>persoon.wav</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6486,10 +7121,16 @@
         <v>3.6095999999999999</v>
       </c>
       <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-    </row>
-    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N106" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>figier.wav</v>
+      </c>
+      <c r="O106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>politie.wav</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6525,10 +7166,16 @@
         <v>3.3864999999999998</v>
       </c>
       <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-    </row>
-    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N107" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>helg.wav</v>
+      </c>
+      <c r="O107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>toekomst.wav</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6562,10 +7209,16 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-    </row>
-    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N108" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>hus.wav</v>
+      </c>
+      <c r="O108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>blap.wav</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6599,10 +7252,16 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-    </row>
-    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N109" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>gous.wav</v>
+      </c>
+      <c r="O109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dansa.wav</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6636,10 +7295,16 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-    </row>
-    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N110" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>zis.wav</v>
+      </c>
+      <c r="O110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dant.wav</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6673,10 +7338,16 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-    </row>
-    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N111" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>kles.wav</v>
+      </c>
+      <c r="O111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>dilder.wav</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6710,10 +7381,16 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-    </row>
-    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N112" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>adruis.wav</v>
+      </c>
+      <c r="O112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>guldel.wav</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6747,10 +7424,16 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-    </row>
-    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N113" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>smofes.wav</v>
+      </c>
+      <c r="O113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>hawel.wav</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6784,10 +7467,16 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-    </row>
-    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N114" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ies.wav</v>
+      </c>
+      <c r="O114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>heuk.wav</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6821,10 +7510,16 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-    </row>
-    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N115" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>res.wav</v>
+      </c>
+      <c r="O115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>hums.wav</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6858,10 +7553,16 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-    </row>
-    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N116" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pals.wav</v>
+      </c>
+      <c r="O116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>kekst.wav</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6895,10 +7596,16 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-    </row>
-    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N117" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>onzeps.wav</v>
+      </c>
+      <c r="O117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>kipt.wav</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6932,10 +7639,16 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N118" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>duis.wav</v>
+      </c>
+      <c r="O118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>kliep.wav</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6969,10 +7682,16 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N119" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>lals.wav</v>
+      </c>
+      <c r="O119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>knil.wav</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7006,10 +7725,16 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N120" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pans.wav</v>
+      </c>
+      <c r="O120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>krakin.wav</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7043,10 +7768,16 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N121" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>knes.wav</v>
+      </c>
+      <c r="O121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>laver.wav</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7080,10 +7811,16 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N122" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>lates.wav</v>
+      </c>
+      <c r="O122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>loping.wav</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7117,10 +7854,16 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N123" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>gars.wav</v>
+      </c>
+      <c r="O123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lopmel.wav</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7154,10 +7897,16 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-    </row>
-    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N124" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ries.wav</v>
+      </c>
+      <c r="O124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>manper.wav</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7191,10 +7940,16 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-    </row>
-    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N125" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>kos.wav</v>
+      </c>
+      <c r="O125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>mipper.wav</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7228,10 +7983,16 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-    </row>
-    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N126" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>pors.wav</v>
+      </c>
+      <c r="O126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>motting.wav</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7265,10 +8026,16 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-    </row>
-    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N127" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tes.wav</v>
+      </c>
+      <c r="O127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>neugd.wav</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7302,10 +8069,16 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N128" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>zas.wav</v>
+      </c>
+      <c r="O128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>rebby.wav</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7339,10 +8112,16 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-    </row>
-    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N129" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>hoods.wav</v>
+      </c>
+      <c r="O129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>reer.wav</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7376,10 +8155,16 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-    </row>
-    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N130" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>vas.wav</v>
+      </c>
+      <c r="O130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>sneppel.wav</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7413,10 +8198,16 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-    </row>
-    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N131" s="2" t="str">
+        <f t="shared" ref="N131:N194" si="4">_xlfn.CONCAT(C131,".wav")</f>
+        <v>mas.wav</v>
+      </c>
+      <c r="O131" s="2" t="str">
+        <f t="shared" ref="O131:O194" si="5">_xlfn.CONCAT(D131,".wav")</f>
+        <v>tist.wav</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7450,10 +8241,16 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-    </row>
-    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N132" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>kels.wav</v>
+      </c>
+      <c r="O132" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>vliffel.wav</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7487,10 +8284,16 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-    </row>
-    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N133" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>nas.wav</v>
+      </c>
+      <c r="O133" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>wiro.wav</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7524,10 +8327,16 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-    </row>
-    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N134" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>brars.wav</v>
+      </c>
+      <c r="O134" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>womel.wav</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7561,10 +8370,16 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-    </row>
-    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N135" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>klens.wav</v>
+      </c>
+      <c r="O135" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>wukker.wav</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7598,10 +8413,16 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-    </row>
-    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N136" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>beuten.wav</v>
+      </c>
+      <c r="O136" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>afcert.wav</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7635,10 +8456,16 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-    </row>
-    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N137" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dolmen.wav</v>
+      </c>
+      <c r="O137" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>bap.wav</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7672,10 +8499,16 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-    </row>
-    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N138" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>sekken.wav</v>
+      </c>
+      <c r="O138" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>biel.wav</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7709,10 +8542,16 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-    </row>
-    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N139" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>jerken.wav</v>
+      </c>
+      <c r="O139" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>biem.wav</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7746,10 +8585,16 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-    </row>
-    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N140" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>inhochten.wav</v>
+      </c>
+      <c r="O140" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>biert.wav</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7783,10 +8628,16 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-    </row>
-    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N141" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>kimpen.wav</v>
+      </c>
+      <c r="O141" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>blit.wav</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7820,10 +8671,16 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-    </row>
-    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N142" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>rengen.wav</v>
+      </c>
+      <c r="O142" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>bonzel.wav</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7857,10 +8714,16 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-    </row>
-    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N143" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>pluchten.wav</v>
+      </c>
+      <c r="O143" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>boof.wav</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7894,10 +8757,16 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-    </row>
-    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N144" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>sefhoren.wav</v>
+      </c>
+      <c r="O144" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>bried.wav</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7931,10 +8800,16 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-    </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N145" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>cillen.wav</v>
+      </c>
+      <c r="O145" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>bud.wav</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7968,10 +8843,16 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-    </row>
-    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N146" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>verganden.wav</v>
+      </c>
+      <c r="O146" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dap.wav</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8005,10 +8886,16 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-    </row>
-    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N147" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>wengen.wav</v>
+      </c>
+      <c r="O147" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>diem.wav</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8042,10 +8929,16 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-    </row>
-    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N148" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>tasen.wav</v>
+      </c>
+      <c r="O148" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dovaan.wav</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8079,10 +8972,16 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-    </row>
-    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N149" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>gerillen.wav</v>
+      </c>
+      <c r="O149" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>drunk.wav</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8116,10 +9015,16 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-    </row>
-    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N150" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>mippen.wav</v>
+      </c>
+      <c r="O150" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>feik.wav</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8153,10 +9058,16 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-    </row>
-    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N151" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>zetzerken.wav</v>
+      </c>
+      <c r="O151" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>fraat.wav</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8190,10 +9101,16 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-    </row>
-    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N152" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>donen.wav</v>
+      </c>
+      <c r="O152" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>frub.wav</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8227,10 +9144,16 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
-    </row>
-    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N153" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>spollen.wav</v>
+      </c>
+      <c r="O153" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>furkel.wav</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8264,10 +9187,16 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-    </row>
-    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N154" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>kaden.wav</v>
+      </c>
+      <c r="O154" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>gemacht.wav</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8301,10 +9230,16 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-    </row>
-    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N155" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>roffen.wav</v>
+      </c>
+      <c r="O155" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>gilier.wav</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8338,10 +9273,16 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-    </row>
-    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N156" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>wipsen.wav</v>
+      </c>
+      <c r="O156" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>graak.wav</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8375,10 +9316,16 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-    </row>
-    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N157" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>hieden.wav</v>
+      </c>
+      <c r="O157" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>klyppel.wav</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8412,10 +9359,16 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-    </row>
-    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N158" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>gorannen.wav</v>
+      </c>
+      <c r="O158" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>lud.wav</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8449,10 +9402,16 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-    </row>
-    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N159" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>herkoden.wav</v>
+      </c>
+      <c r="O159" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>tek.wav</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8486,10 +9445,16 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-    </row>
-    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N160" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>aannoelen.wav</v>
+      </c>
+      <c r="O160" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>traga.wav</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8523,10 +9488,16 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-    </row>
-    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N161" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>krivieken.wav</v>
+      </c>
+      <c r="O161" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>troksem.wav</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8560,10 +9531,16 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-    </row>
-    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N162" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>hasten.wav</v>
+      </c>
+      <c r="O162" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>vodef.wav</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8597,10 +9574,16 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-    </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N163" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>dasten.wav</v>
+      </c>
+      <c r="O163" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>wievel.wav</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8636,10 +9619,16 @@
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-    </row>
-    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N164" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>baan.wav</v>
+      </c>
+      <c r="O164" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>doking.wav</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8675,10 +9664,16 @@
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-    </row>
-    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N165" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>gezicht.wav</v>
+      </c>
+      <c r="O165" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>karste.wav</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8714,10 +9709,16 @@
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-    </row>
-    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N166" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>stuk.wav</v>
+      </c>
+      <c r="O166" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>tijn.wav</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8753,10 +9754,16 @@
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-    </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N167" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>verhaal.wav</v>
+      </c>
+      <c r="O167" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>vaast.wav</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8792,10 +9799,16 @@
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-    </row>
-    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N168" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>begin.wav</v>
+      </c>
+      <c r="O168" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>vuut.wav</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8831,10 +9844,16 @@
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-    </row>
-    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N169" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>rest.wav</v>
+      </c>
+      <c r="O169" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>wanst.wav</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8870,10 +9889,16 @@
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-    </row>
-    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N170" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>plek.wav</v>
+      </c>
+      <c r="O170" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>wels.wav</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8909,10 +9934,16 @@
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-    </row>
-    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N171" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>gevoel.wav</v>
+      </c>
+      <c r="O171" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>zalder.wav</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8948,10 +9979,16 @@
       </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-    </row>
-    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N172" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>verstand.wav</v>
+      </c>
+      <c r="O172" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>zan.wav</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8987,10 +10024,16 @@
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-    </row>
-    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N173" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>wereld.wav</v>
+      </c>
+      <c r="O173" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>zarder.wav</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9026,10 +10069,16 @@
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-    </row>
-    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N174" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>antwoord.wav</v>
+      </c>
+      <c r="O174" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>zek.wav</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9065,10 +10114,16 @@
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-    </row>
-    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N175" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>kantoor.wav</v>
+      </c>
+      <c r="O175" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>zetver.wav</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9104,10 +10159,16 @@
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-    </row>
-    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N176" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>koning.wav</v>
+      </c>
+      <c r="O176" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>zoe.wav</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9143,10 +10204,16 @@
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-    </row>
-    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N177" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>moment.wav</v>
+      </c>
+      <c r="O177" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>zun.wav</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9182,10 +10249,16 @@
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-    </row>
-    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N178" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>hobbels.wav</v>
+      </c>
+      <c r="O178" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dest.wav</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9221,10 +10294,16 @@
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-    </row>
-    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N179" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>trekkers.wav</v>
+      </c>
+      <c r="O179" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>dwee.wav</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9260,10 +10339,16 @@
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-    </row>
-    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N180" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>bellers.wav</v>
+      </c>
+      <c r="O180" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>fleusde.wav</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9299,10 +10384,16 @@
       </c>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-    </row>
-    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N181" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>zwaktes.wav</v>
+      </c>
+      <c r="O181" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>groost.wav</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9338,10 +10429,16 @@
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-    </row>
-    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N182" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ladders.wav</v>
+      </c>
+      <c r="O182" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>knoer.wav</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9377,10 +10474,16 @@
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
-    </row>
-    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N183" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>zadels.wav</v>
+      </c>
+      <c r="O183" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>pemmo.wav</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9416,10 +10519,16 @@
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
-    </row>
-    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N184" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>rokers.wav</v>
+      </c>
+      <c r="O184" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>pijver.wav</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9455,10 +10564,16 @@
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
-    </row>
-    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N185" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>klinkers.wav</v>
+      </c>
+      <c r="O185" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>tert.wav</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9494,10 +10609,16 @@
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-    </row>
-    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N186" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>stempels.wav</v>
+      </c>
+      <c r="O186" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>toenacht.wav</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9533,10 +10654,16 @@
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
-    </row>
-    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N187" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>bezems.wav</v>
+      </c>
+      <c r="O187" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>tond.wav</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9572,10 +10699,16 @@
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-    </row>
-    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N188" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>waardes.wav</v>
+      </c>
+      <c r="O188" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>trep.wav</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9611,10 +10744,16 @@
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-    </row>
-    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N189" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>kreukels.wav</v>
+      </c>
+      <c r="O189" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>vert.wav</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9650,10 +10789,16 @@
       </c>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-    </row>
-    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N190" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>kloosters.wav</v>
+      </c>
+      <c r="O190" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>voch.wav</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9689,10 +10834,16 @@
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
-      <c r="O191" s="2"/>
-    </row>
-    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N191" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>slingers.wav</v>
+      </c>
+      <c r="O191" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>volloe.wav</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9728,10 +10879,16 @@
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-    </row>
-    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N192" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>afwas.wav</v>
+      </c>
+      <c r="O192" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>blofuil.wav</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9767,10 +10924,16 @@
       </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-    </row>
-    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N193" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>moeras.wav</v>
+      </c>
+      <c r="O193" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>brot.wav</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9806,10 +10969,16 @@
       </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-    </row>
-    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N194" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>excuus.wav</v>
+      </c>
+      <c r="O194" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>gnole.wav</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9845,10 +11014,16 @@
       </c>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
-      <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
-    </row>
-    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N195" s="2" t="str">
+        <f t="shared" ref="N195:N258" si="6">_xlfn.CONCAT(C195,".wav")</f>
+        <v>glas.wav</v>
+      </c>
+      <c r="O195" s="2" t="str">
+        <f t="shared" ref="O195:O258" si="7">_xlfn.CONCAT(D195,".wav")</f>
+        <v>hekte.wav</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9884,10 +11059,16 @@
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
-    </row>
-    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N196" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>kompas.wav</v>
+      </c>
+      <c r="O196" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>loem.wav</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9923,10 +11104,16 @@
       </c>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
-      <c r="O197" s="2"/>
-    </row>
-    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N197" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>applaus.wav</v>
+      </c>
+      <c r="O197" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>pomt.wav</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9962,10 +11149,16 @@
       </c>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-    </row>
-    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N198" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>hals.wav</v>
+      </c>
+      <c r="O198" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>projoet.wav</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10001,10 +11194,16 @@
       </c>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-    </row>
-    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N199" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>paleis.wav</v>
+      </c>
+      <c r="O199" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>ragding.wav</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10040,10 +11239,16 @@
       </c>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-    </row>
-    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N200" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>prinses.wav</v>
+      </c>
+      <c r="O200" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>ralor.wav</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10079,10 +11284,16 @@
       </c>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-    </row>
-    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N201" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>baas.wav</v>
+      </c>
+      <c r="O201" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>ripge.wav</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10118,10 +11329,16 @@
       </c>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" s="2"/>
-    </row>
-    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N202" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>kermis.wav</v>
+      </c>
+      <c r="O202" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>roetter.wav</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10157,10 +11374,16 @@
       </c>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-    </row>
-    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N203" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>mens.wav</v>
+      </c>
+      <c r="O203" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>roogsel.wav</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10196,10 +11419,16 @@
       </c>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-    </row>
-    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N204" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>bonus.wav</v>
+      </c>
+      <c r="O204" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>scheegte.wav</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10235,10 +11464,16 @@
       </c>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
-    </row>
-    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N205" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>vonnis.wav</v>
+      </c>
+      <c r="O205" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>schunder.wav</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10274,10 +11509,16 @@
       </c>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
-    </row>
-    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N206" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>soorten.wav</v>
+      </c>
+      <c r="O206" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>daart.wav</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10313,10 +11554,16 @@
       </c>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
-    </row>
-    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N207" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>ballen.wav</v>
+      </c>
+      <c r="O207" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>grort.wav</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10352,10 +11599,16 @@
       </c>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
-    </row>
-    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N208" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>dieren.wav</v>
+      </c>
+      <c r="O208" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>kransing.wav</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10391,10 +11644,16 @@
       </c>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-    </row>
-    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N209" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>woorden.wav</v>
+      </c>
+      <c r="O209" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>spoer.wav</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10430,10 +11689,16 @@
       </c>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-    </row>
-    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N210" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>deuren.wav</v>
+      </c>
+      <c r="O210" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>spol.wav</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10469,10 +11734,16 @@
       </c>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-    </row>
-    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N211" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>katten.wav</v>
+      </c>
+      <c r="O211" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>sprading.wav</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10508,10 +11779,16 @@
       </c>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-    </row>
-    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N212" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>pillen.wav</v>
+      </c>
+      <c r="O212" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>stantte.wav</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10547,10 +11824,16 @@
       </c>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-    </row>
-    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N213" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>vormen.wav</v>
+      </c>
+      <c r="O213" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>stemte.wav</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10586,10 +11869,16 @@
       </c>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-    </row>
-    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N214" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>beelden.wav</v>
+      </c>
+      <c r="O214" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>steup.wav</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10625,10 +11914,16 @@
       </c>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-    </row>
-    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N215" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>maanden.wav</v>
+      </c>
+      <c r="O215" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>stid.wav</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10664,10 +11959,16 @@
       </c>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-    </row>
-    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N216" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>kranten.wav</v>
+      </c>
+      <c r="O216" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>stijp.wav</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10703,10 +12004,16 @@
       </c>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-    </row>
-    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N217" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>sokken.wav</v>
+      </c>
+      <c r="O217" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>stulee.wav</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10742,10 +12049,16 @@
       </c>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-    </row>
-    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N218" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>nachten.wav</v>
+      </c>
+      <c r="O218" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tenkkiek.wav</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10781,10 +12094,16 @@
       </c>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
-    </row>
-    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N219" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>nesten.wav</v>
+      </c>
+      <c r="O219" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tiek.wav</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10820,10 +12139,16 @@
       </c>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-    </row>
-    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N220" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>keten.wav</v>
+      </c>
+      <c r="O220" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>didde.wav</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10859,10 +12184,16 @@
       </c>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
-    </row>
-    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N221" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>zuiden.wav</v>
+      </c>
+      <c r="O221" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>frartoor.wav</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10898,10 +12229,16 @@
       </c>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-    </row>
-    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N222" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>kussen.wav</v>
+      </c>
+      <c r="O222" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>kapie.wav</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10937,10 +12274,16 @@
       </c>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-    </row>
-    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N223" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>examen.wav</v>
+      </c>
+      <c r="O223" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>kledeet.wav</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10976,10 +12319,16 @@
       </c>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-    </row>
-    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N224" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>toren.wav</v>
+      </c>
+      <c r="O224" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>kliteek.wav</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11015,10 +12364,16 @@
       </c>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-    </row>
-    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N225" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>veulen.wav</v>
+      </c>
+      <c r="O225" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>kodaal.wav</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11054,10 +12409,16 @@
       </c>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-    </row>
-    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N226" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>teken.wav</v>
+      </c>
+      <c r="O226" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>mowool.wav</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11093,10 +12454,16 @@
       </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-    </row>
-    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N227" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>vermogen.wav</v>
+      </c>
+      <c r="O227" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>navurf.wav</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11132,10 +12499,16 @@
       </c>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-    </row>
-    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N228" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>leugen.wav</v>
+      </c>
+      <c r="O228" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>ogjesk.wav</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11171,10 +12544,16 @@
       </c>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-    </row>
-    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N229" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>varken.wav</v>
+      </c>
+      <c r="O229" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>paam.wav</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11210,10 +12589,16 @@
       </c>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-    </row>
-    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N230" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>negen.wav</v>
+      </c>
+      <c r="O230" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>pilijk.wav</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11249,10 +12634,16 @@
       </c>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-    </row>
-    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N231" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>christen.wav</v>
+      </c>
+      <c r="O231" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>slacond.wav</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11288,10 +12679,16 @@
       </c>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-    </row>
-    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N232" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>gegeven.wav</v>
+      </c>
+      <c r="O232" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tasteur.wav</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11327,10 +12724,16 @@
       </c>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-    </row>
-    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N233" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>leven.wav</v>
+      </c>
+      <c r="O233" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>waat.wav</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11366,10 +12769,16 @@
         <v>3.2002999999999999</v>
       </c>
       <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
-    </row>
-    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N234" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>smoed.wav</v>
+      </c>
+      <c r="O234" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>adres.wav</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11405,10 +12814,16 @@
         <v>2.5453000000000001</v>
       </c>
       <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
-    </row>
-    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N235" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>glanding.wav</v>
+      </c>
+      <c r="O235" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>circus.wav</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11444,10 +12859,16 @@
         <v>2.0333999999999999</v>
       </c>
       <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
-    </row>
-    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N236" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>smelk.wav</v>
+      </c>
+      <c r="O236" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>cyclus.wav</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11483,10 +12904,16 @@
         <v>2.4281000000000001</v>
       </c>
       <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
-    </row>
-    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N237" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>kraad.wav</v>
+      </c>
+      <c r="O237" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>dosis.wav</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11522,10 +12949,16 @@
         <v>2.0969000000000002</v>
       </c>
       <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
-    </row>
-    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N238" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>kliter.wav</v>
+      </c>
+      <c r="O238" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>fonds.wav</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11561,10 +12994,16 @@
         <v>2.7307999999999999</v>
       </c>
       <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-    </row>
-    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N239" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>nuur.wav</v>
+      </c>
+      <c r="O239" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>kluis.wav</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11600,10 +13039,16 @@
         <v>2.1789999999999998</v>
       </c>
       <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
-    </row>
-    <row r="241" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N240" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>krij.wav</v>
+      </c>
+      <c r="O240" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>koets.wav</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11639,10 +13084,16 @@
         <v>2.2528999999999999</v>
       </c>
       <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
-    </row>
-    <row r="242" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N241" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>krook.wav</v>
+      </c>
+      <c r="O241" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>matras.wav</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11678,10 +13129,16 @@
         <v>3.6027999999999998</v>
       </c>
       <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
-    </row>
-    <row r="243" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N242" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>smaan.wav</v>
+      </c>
+      <c r="O242" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>nieuws.wav</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11717,10 +13174,16 @@
         <v>2.3540999999999999</v>
       </c>
       <c r="M243" s="2"/>
-      <c r="N243" s="2"/>
-      <c r="O243" s="2"/>
-    </row>
-    <row r="244" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N243" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>prust.wav</v>
+      </c>
+      <c r="O243" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>reeks.wav</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11756,10 +13219,16 @@
         <v>3.4474999999999998</v>
       </c>
       <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
-      <c r="O244" s="2"/>
-    </row>
-    <row r="245" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N244" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>krommel.wav</v>
+      </c>
+      <c r="O244" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>succes.wav</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11795,10 +13264,16 @@
         <v>3.2235</v>
       </c>
       <c r="M245" s="2"/>
-      <c r="N245" s="2"/>
-      <c r="O245" s="2"/>
-    </row>
-    <row r="246" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N245" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>sneef.wav</v>
+      </c>
+      <c r="O245" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>verlies.wav</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11834,10 +13309,16 @@
         <v>2.4081999999999999</v>
       </c>
       <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-    </row>
-    <row r="247" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N246" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>stuin.wav</v>
+      </c>
+      <c r="O246" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>vuilnis.wav</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11873,10 +13354,16 @@
         <v>2.1553</v>
       </c>
       <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
-      <c r="O247" s="2"/>
-    </row>
-    <row r="248" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N247" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>glot.wav</v>
+      </c>
+      <c r="O247" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>walvis.wav</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11912,10 +13399,16 @@
         <v>2.0718999999999999</v>
       </c>
       <c r="M248" s="2"/>
-      <c r="N248" s="2"/>
-      <c r="O248" s="2"/>
-    </row>
-    <row r="249" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N248" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>lijzer.wav</v>
+      </c>
+      <c r="O248" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>baken.wav</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11951,10 +13444,16 @@
         <v>1.4314</v>
       </c>
       <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
-    </row>
-    <row r="250" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N249" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>poom.wav</v>
+      </c>
+      <c r="O249" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>degen.wav</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11990,10 +13489,16 @@
         <v>2.6031</v>
       </c>
       <c r="M250" s="2"/>
-      <c r="N250" s="2"/>
-      <c r="O250" s="2"/>
-    </row>
-    <row r="251" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N250" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>tarm.wav</v>
+      </c>
+      <c r="O250" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>deken.wav</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12029,10 +13534,16 @@
         <v>2.6821000000000002</v>
       </c>
       <c r="M251" s="2"/>
-      <c r="N251" s="2"/>
-      <c r="O251" s="2"/>
-    </row>
-    <row r="252" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N251" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>hemmer.wav</v>
+      </c>
+      <c r="O251" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>haven.wav</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12068,10 +13579,16 @@
         <v>3.7185999999999999</v>
       </c>
       <c r="M252" s="2"/>
-      <c r="N252" s="2"/>
-      <c r="O252" s="2"/>
-    </row>
-    <row r="253" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N252" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>slading.wav</v>
+      </c>
+      <c r="O252" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>jongen.wav</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12107,10 +13624,16 @@
         <v>2.8376000000000001</v>
       </c>
       <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
-      <c r="O253" s="2"/>
-    </row>
-    <row r="254" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N253" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>helk.wav</v>
+      </c>
+      <c r="O253" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>optreden.wav</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12146,10 +13669,16 @@
         <v>1.5563</v>
       </c>
       <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
-    </row>
-    <row r="255" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N254" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>hittel.wav</v>
+      </c>
+      <c r="O254" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>tentamen.wav</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12185,10 +13714,16 @@
         <v>2.6463999999999999</v>
       </c>
       <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
-    </row>
-    <row r="256" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N255" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>slift.wav</v>
+      </c>
+      <c r="O255" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>vermoeden.wav</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12224,10 +13759,16 @@
         <v>3.5327999999999999</v>
       </c>
       <c r="M256" s="2"/>
-      <c r="N256" s="2"/>
-      <c r="O256" s="2"/>
-    </row>
-    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N256" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>pengel.wav</v>
+      </c>
+      <c r="O256" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>vertrouwen.wav</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12263,10 +13804,16 @@
         <v>1.6128</v>
       </c>
       <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
-    </row>
-    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N257" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>bark.wav</v>
+      </c>
+      <c r="O257" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>voornemen.wav</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12302,10 +13849,16 @@
         <v>3.2240000000000002</v>
       </c>
       <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
-      <c r="O258" s="2"/>
-    </row>
-    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N258" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>geer.wav</v>
+      </c>
+      <c r="O258" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>wagen.wav</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12341,10 +13894,16 @@
         <v>2.9089999999999998</v>
       </c>
       <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
-      <c r="O259" s="2"/>
-    </row>
-    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N259" s="2" t="str">
+        <f t="shared" ref="N259:N289" si="8">_xlfn.CONCAT(C259,".wav")</f>
+        <v>slening.wav</v>
+      </c>
+      <c r="O259" s="2" t="str">
+        <f t="shared" ref="O259:O289" si="9">_xlfn.CONCAT(D259,".wav")</f>
+        <v>westen.wav</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12380,10 +13939,16 @@
         <v>3.0979999999999999</v>
       </c>
       <c r="M260" s="2"/>
-      <c r="N260" s="2"/>
-      <c r="O260" s="2"/>
-    </row>
-    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N260" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>padem.wav</v>
+      </c>
+      <c r="O260" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>wezen.wav</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12419,10 +13984,16 @@
         <v>2.8287</v>
       </c>
       <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
-      <c r="O261" s="2"/>
-    </row>
-    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N261" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>snevel.wav</v>
+      </c>
+      <c r="O261" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>zegen.wav</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12458,10 +14029,16 @@
         <v>2.9434999999999998</v>
       </c>
       <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
-      <c r="O262" s="2"/>
-    </row>
-    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N262" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>bork.wav</v>
+      </c>
+      <c r="O262" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>bergen.wav</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12497,10 +14074,16 @@
         <v>3.2073999999999998</v>
       </c>
       <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
-      <c r="O263" s="2"/>
-    </row>
-    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N263" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>gevage.wav</v>
+      </c>
+      <c r="O263" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>boeken.wav</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12536,10 +14119,16 @@
         <v>2.6474000000000002</v>
       </c>
       <c r="M264" s="2"/>
-      <c r="N264" s="2"/>
-      <c r="O264" s="2"/>
-    </row>
-    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N264" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>talekt.wav</v>
+      </c>
+      <c r="O264" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>boeren.wav</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12575,10 +14164,16 @@
         <v>3.7244000000000002</v>
       </c>
       <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-    </row>
-    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N265" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>bespeet.wav</v>
+      </c>
+      <c r="O265" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>dagen.wav</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12614,10 +14209,16 @@
         <v>2.3464</v>
       </c>
       <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-    </row>
-    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N266" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>arroest.wav</v>
+      </c>
+      <c r="O266" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>insecten.wav</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12653,10 +14254,16 @@
         <v>2.6617999999999999</v>
       </c>
       <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-    </row>
-    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N267" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>verglad.wav</v>
+      </c>
+      <c r="O267" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>koppen.wav</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12692,10 +14299,16 @@
         <v>2.1818</v>
       </c>
       <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-    </row>
-    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N268" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>raptart.wav</v>
+      </c>
+      <c r="O268" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>pijlen.wav</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12731,10 +14344,16 @@
         <v>2.4996999999999998</v>
       </c>
       <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
-    </row>
-    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N269" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>voornerf.wav</v>
+      </c>
+      <c r="O269" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>rotsen.wav</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12770,10 +14389,16 @@
         <v>2.2303999999999999</v>
       </c>
       <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-    </row>
-    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N270" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>tapeuk.wav</v>
+      </c>
+      <c r="O270" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>stammen.wav</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12809,10 +14434,16 @@
         <v>2.9794999999999998</v>
       </c>
       <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-    </row>
-    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N271" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>schern.wav</v>
+      </c>
+      <c r="O271" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>sterren.wav</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12848,10 +14479,16 @@
         <v>3.2454999999999998</v>
       </c>
       <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
-      <c r="O272" s="2"/>
-    </row>
-    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N272" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>inzweed.wav</v>
+      </c>
+      <c r="O272" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>voeten.wav</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12887,10 +14524,16 @@
         <v>3.7305999999999999</v>
       </c>
       <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
-    </row>
-    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N273" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>verploef.wav</v>
+      </c>
+      <c r="O273" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>vrienden.wav</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12926,10 +14569,16 @@
         <v>2.7168000000000001</v>
       </c>
       <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-    </row>
-    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N274" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>verrier.wav</v>
+      </c>
+      <c r="O274" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>wetten.wav</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12965,10 +14614,16 @@
         <v>2.3597999999999999</v>
       </c>
       <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
-    </row>
-    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N275" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>storn.wav</v>
+      </c>
+      <c r="O275" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>wielen.wav</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13004,10 +14659,16 @@
         <v>2.2967</v>
       </c>
       <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-    </row>
-    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N276" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>opplad.wav</v>
+      </c>
+      <c r="O276" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>appels.wav</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13043,10 +14704,16 @@
         <v>1.4771000000000001</v>
       </c>
       <c r="M277" s="2"/>
-      <c r="N277" s="2"/>
-      <c r="O277" s="2"/>
-    </row>
-    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N277" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>voorgakt.wav</v>
+      </c>
+      <c r="O277" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>beugels.wav</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13082,10 +14749,16 @@
         <v>2.8214999999999999</v>
       </c>
       <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
-    </row>
-    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N278" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>orrijn.wav</v>
+      </c>
+      <c r="O278" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>collega's.wav</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13121,10 +14794,16 @@
         <v>3.2961999999999998</v>
       </c>
       <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
-    </row>
-    <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N279" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>voortiel.wav</v>
+      </c>
+      <c r="O279" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>foto's.wav</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13160,10 +14839,16 @@
         <v>2.4563999999999999</v>
       </c>
       <c r="M280" s="2"/>
-      <c r="N280" s="2"/>
-      <c r="O280" s="2"/>
-    </row>
-    <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N280" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>porkoor.wav</v>
+      </c>
+      <c r="O280" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>heuvels.wav</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13199,10 +14884,16 @@
         <v>2.2923</v>
       </c>
       <c r="M281" s="2"/>
-      <c r="N281" s="2"/>
-      <c r="O281" s="2"/>
-    </row>
-    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N281" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>intreek.wav</v>
+      </c>
+      <c r="O281" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>jagers.wav</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13238,10 +14929,16 @@
         <v>1.4771000000000001</v>
       </c>
       <c r="M282" s="2"/>
-      <c r="N282" s="2"/>
-      <c r="O282" s="2"/>
-    </row>
-    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N282" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>verwoor.wav</v>
+      </c>
+      <c r="O282" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>kapsels.wav</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13277,10 +14974,16 @@
         <v>2.5832000000000002</v>
       </c>
       <c r="M283" s="2"/>
-      <c r="N283" s="2"/>
-      <c r="O283" s="2"/>
-    </row>
-    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N283" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>aanpot.wav</v>
+      </c>
+      <c r="O283" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>koffers.wav</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13316,10 +15019,16 @@
         <v>2.3323999999999998</v>
       </c>
       <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
-      <c r="O284" s="2"/>
-    </row>
-    <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N284" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>verlaar.wav</v>
+      </c>
+      <c r="O284" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>lucifers.wav</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13355,10 +15064,16 @@
         <v>1.9590000000000001</v>
       </c>
       <c r="M285" s="2"/>
-      <c r="N285" s="2"/>
-      <c r="O285" s="2"/>
-    </row>
-    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N285" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>verwij.wav</v>
+      </c>
+      <c r="O285" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>oesters.wav</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13394,10 +15109,16 @@
         <v>2.0933999999999999</v>
       </c>
       <c r="M286" s="2"/>
-      <c r="N286" s="2"/>
-      <c r="O286" s="2"/>
-    </row>
-    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N286" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>afziep.wav</v>
+      </c>
+      <c r="O286" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>parels.wav</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13433,10 +15154,16 @@
         <v>3.3245</v>
       </c>
       <c r="M287" s="2"/>
-      <c r="N287" s="2"/>
-      <c r="O287" s="2"/>
-    </row>
-    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N287" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>afkol.wav</v>
+      </c>
+      <c r="O287" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>regels.wav</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13472,10 +15199,16 @@
         <v>2.0607000000000002</v>
       </c>
       <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
-      <c r="O288" s="2"/>
-    </row>
-    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N288" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>genok.wav</v>
+      </c>
+      <c r="O288" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>ridders.wav</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13511,720 +15244,726 @@
         <v>2</v>
       </c>
       <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
-      <c r="O289" s="2"/>
-    </row>
-    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="N289" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>invorn.wav</v>
+      </c>
+      <c r="O289" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>vlinders.wav</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:O289" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O289">

--- a/resources/list3.xlsx
+++ b/resources/list3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medej\Desktop\EXP Neurolinguistics\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medej\Documents\EXP Neurolinguistics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9B6D8B-C79F-4A88-BE77-4289F8FDAE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9BCF57-C2CD-4BA9-BAD9-99DFCDFA4E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1862,7 +1862,7 @@
     <t>stimID</t>
   </si>
   <si>
-    <t>onzeps</t>
+    <t>ontzeps</t>
   </si>
 </sst>
 </file>
@@ -2151,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="V312" sqref="V312"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="W279" sqref="W279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2260,11 +2260,11 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="str">
-        <f>_xlfn.CONCAT(C2,".wav")</f>
+        <f>_xlfn.CONCAT(SUBSTITUTE(C2,"'",""),".wav")</f>
         <v>kostuum.wav</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>_xlfn.CONCAT(D2,".wav")</f>
+        <f>_xlfn.CONCAT(SUBSTITUTE(D2,"'",""),".wav")</f>
         <v>acties.wav</v>
       </c>
     </row>
@@ -2307,11 +2307,11 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="0">_xlfn.CONCAT(C3,".wav")</f>
+        <f t="shared" ref="N3:N66" si="0">_xlfn.CONCAT(SUBSTITUTE(C3,"'",""),".wav")</f>
         <v>zwerver.wav</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="1">_xlfn.CONCAT(D3,".wav")</f>
+        <f t="shared" ref="O3:O66" si="1">_xlfn.CONCAT(SUBSTITUTE(D3,"'",""),".wav")</f>
         <v>bendes.wav</v>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>camera's.wav</v>
+        <v>cameras.wav</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3671,7 +3671,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pagina's.wav</v>
+        <v>paginas.wav</v>
       </c>
       <c r="O32" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="O53" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>risico's.wav</v>
+        <v>risicos.wav</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5315,11 +5315,11 @@
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N130" si="2">_xlfn.CONCAT(C67,".wav")</f>
+        <f t="shared" ref="N67:N130" si="2">_xlfn.CONCAT(SUBSTITUTE(C67,"'",""),".wav")</f>
         <v>spijker.wav</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O130" si="3">_xlfn.CONCAT(D67,".wav")</f>
+        <f t="shared" ref="O67:O130" si="3">_xlfn.CONCAT(SUBSTITUTE(D67,"'",""),".wav")</f>
         <v>wachters.wav</v>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>onzeps.wav</v>
+        <v>ontzeps.wav</v>
       </c>
       <c r="O117" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8199,11 +8199,11 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2" t="str">
-        <f t="shared" ref="N131:N194" si="4">_xlfn.CONCAT(C131,".wav")</f>
+        <f t="shared" ref="N131:N194" si="4">_xlfn.CONCAT(SUBSTITUTE(C131,"'",""),".wav")</f>
         <v>mas.wav</v>
       </c>
       <c r="O131" s="2" t="str">
-        <f t="shared" ref="O131:O194" si="5">_xlfn.CONCAT(D131,".wav")</f>
+        <f t="shared" ref="O131:O194" si="5">_xlfn.CONCAT(SUBSTITUTE(D131,"'",""),".wav")</f>
         <v>tist.wav</v>
       </c>
     </row>
@@ -11015,11 +11015,11 @@
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2" t="str">
-        <f t="shared" ref="N195:N258" si="6">_xlfn.CONCAT(C195,".wav")</f>
+        <f t="shared" ref="N195:N258" si="6">_xlfn.CONCAT(SUBSTITUTE(C195,"'",""),".wav")</f>
         <v>glas.wav</v>
       </c>
       <c r="O195" s="2" t="str">
-        <f t="shared" ref="O195:O258" si="7">_xlfn.CONCAT(D195,".wav")</f>
+        <f t="shared" ref="O195:O258" si="7">_xlfn.CONCAT(SUBSTITUTE(D195,"'",""),".wav")</f>
         <v>hekte.wav</v>
       </c>
     </row>
@@ -13895,11 +13895,11 @@
       </c>
       <c r="M259" s="2"/>
       <c r="N259" s="2" t="str">
-        <f t="shared" ref="N259:N289" si="8">_xlfn.CONCAT(C259,".wav")</f>
+        <f t="shared" ref="N259:N289" si="8">_xlfn.CONCAT(SUBSTITUTE(C259,"'",""),".wav")</f>
         <v>slening.wav</v>
       </c>
       <c r="O259" s="2" t="str">
-        <f t="shared" ref="O259:O289" si="9">_xlfn.CONCAT(D259,".wav")</f>
+        <f t="shared" ref="O259:O289" si="9">_xlfn.CONCAT(SUBSTITUTE(D259,"'",""),".wav")</f>
         <v>westen.wav</v>
       </c>
     </row>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="O278" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>collega's.wav</v>
+        <v>collegas.wav</v>
       </c>
     </row>
     <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="O279" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>foto's.wav</v>
+        <v>fotos.wav</v>
       </c>
     </row>
     <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
